--- a/baseball/montecarlo.xlsx
+++ b/baseball/montecarlo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melis\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED890AE-56D9-40EF-861D-F7E5EE813EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A87FCD-F13E-4785-A732-1BF696AACFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96EB19B7-2F2C-4DD9-B3B6-2FCAB9948AF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96EB19B7-2F2C-4DD9-B3B6-2FCAB9948AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="MonteCarlo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Team</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Red Sox</t>
   </si>
   <si>
-    <t>AvgRunScored</t>
-  </si>
-  <si>
     <t>AvgRunsAgainst</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Team Stats</t>
+  </si>
+  <si>
+    <t>AvgRunsScored</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +609,7 @@
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -621,16 +621,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -673,34 +673,36 @@
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
+      <c r="B8" s="2" t="str">
+        <f>B4</f>
+        <v>Yankees</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>B5</f>
+        <v>Red Sox</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <f ca="1">_xlfn.NORM.INV(RAND(), E4, F4)</f>
-        <v>-0.90138682669688919</v>
+        <v>10.346232739347307</v>
       </c>
       <c r="C9" s="5">
         <f ca="1">_xlfn.NORM.INV(RAND(), E5, F5)</f>
-        <v>4.3167640341596867</v>
+        <v>3.6703145123476402</v>
       </c>
       <c r="D9" s="6" t="str">
         <f ca="1">IF(B9 &gt; C9, B4, B5)</f>
-        <v>Red Sox</v>
+        <v>Yankees</v>
       </c>
     </row>
   </sheetData>
